--- a/ClickTab.Web/Resources/Rules.xlsx
+++ b/ClickTab.Web/Resources/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\ClickTab.Workspace\ClickTab.Web\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3347D89-7803-4ECD-8800-69FEB5779403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DE1717-5ECC-485D-A1B8-34A081709FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CE886E5-4283-4CD5-9E96-CB89D1ED4802}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Anagrafica Ruoli</t>
+  </si>
+  <si>
+    <t>/dashboard</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E9910E-FD52-4023-9436-14FAB63A6559}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -462,28 +468,39 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ClickTab.Web/Resources/Rules.xlsx
+++ b/ClickTab.Web/Resources/Rules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\ClickTab.Workspace\ClickTab.Web\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DE1717-5ECC-485D-A1B8-34A081709FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8B44F6-0DA3-43F5-A139-DBACA3C6BEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CE886E5-4283-4CD5-9E96-CB89D1ED4802}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -496,8 +496,11 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>

--- a/ClickTab.Web/Resources/Rules.xlsx
+++ b/ClickTab.Web/Resources/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\ClickTab.Workspace\ClickTab.Web\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8B44F6-0DA3-43F5-A139-DBACA3C6BEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E26DF91-87F1-46A2-A58F-A78CDAEE983A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CE886E5-4283-4CD5-9E96-CB89D1ED4802}"/>
+    <workbookView xWindow="29970" yWindow="1590" windowWidth="21600" windowHeight="11295" xr2:uid="{7CE886E5-4283-4CD5-9E96-CB89D1ED4802}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -63,22 +63,20 @@
   </si>
   <si>
     <t>Dashboard</t>
+  </si>
+  <si>
+    <t>tables;/tables/list-categories;/tables/add-categories</t>
+  </si>
+  <si>
+    <t>Anagrafica Gruppi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -106,9 +104,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -443,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E9910E-FD52-4023-9436-14FAB63A6559}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,10 +497,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ClickTab.Web/Resources/Rules.xlsx
+++ b/ClickTab.Web/Resources/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\ClickTab.Workspace\ClickTab.Web\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E26DF91-87F1-46A2-A58F-A78CDAEE983A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F58E0C7-08A5-4CE2-A176-D073E74524B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1590" windowWidth="21600" windowHeight="11295" xr2:uid="{7CE886E5-4283-4CD5-9E96-CB89D1ED4802}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CE886E5-4283-4CD5-9E96-CB89D1ED4802}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Anagrafica Gruppi</t>
+  </si>
+  <si>
+    <t>tables;/tables/list-subcategories;/tables/add-subcategories</t>
+  </si>
+  <si>
+    <t>Anagrafica Sotto Gruppi</t>
   </si>
 </sst>
 </file>
@@ -440,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E9910E-FD52-4023-9436-14FAB63A6559}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD74"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +513,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ClickTab.Web/Resources/Rules.xlsx
+++ b/ClickTab.Web/Resources/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\ClickTab.Workspace\ClickTab.Web\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F58E0C7-08A5-4CE2-A176-D073E74524B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AAF3D0-ABDF-4BBD-9DA1-D7557DC07D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CE886E5-4283-4CD5-9E96-CB89D1ED4802}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Anagrafica Sotto Gruppi</t>
+  </si>
+  <si>
+    <t>tables;/tables/list-vats;/tables/add-vats</t>
+  </si>
+  <si>
+    <t>Anagrafica Tabella Iva</t>
+  </si>
+  <si>
+    <t>Modifica Aliquota IVA</t>
   </si>
 </sst>
 </file>
@@ -446,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E9910E-FD52-4023-9436-14FAB63A6559}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,6 +533,25 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
